--- a/phase 1/0.0 Trainer_Documents/MEAN_Phase_1_TOC.xlsx
+++ b/phase 1/0.0 Trainer_Documents/MEAN_Phase_1_TOC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THANESH\OneDrive\Desktop\MEAN\phase 1\0.0 Trainer_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A66B9BD-53ED-4B05-B8E9-41E91C2AC1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A73249D-9B68-4CB5-B4C5-FCB9172A3B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="144" yWindow="0" windowWidth="15120" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>IIFEs, callbacks and closures</t>
   </si>
   <si>
-    <t>Assisted Practice: IIFEs, callbacks and closures</t>
-  </si>
-  <si>
     <t>IIFEs and functions</t>
   </si>
   <si>
@@ -118,15 +115,9 @@
     <t>Promises and Async</t>
   </si>
   <si>
-    <t>Assisted Practice: Promises and Async</t>
-  </si>
-  <si>
     <t>Ajax Calls</t>
   </si>
   <si>
-    <t>Assisted Practice: Ajax Calls</t>
-  </si>
-  <si>
     <t>Webpack and Modern JavaScript</t>
   </si>
   <si>
@@ -206,6 +197,15 @@
   </si>
   <si>
     <t>Phase-End-Project: Simply Blogging</t>
+  </si>
+  <si>
+    <t>Assisted Practice: Promises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assisted Practice: Ajax </t>
+  </si>
+  <si>
+    <t>Assisted Practice: IIFEs, callbacks</t>
   </si>
 </sst>
 </file>
@@ -661,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,7 @@
         <v>2.0900000000000101</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>2.1000000000000099</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,7 +904,7 @@
         <v>2.1100000000000101</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>2.1200000000000099</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>2.1300000000000101</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
         <v>2.1400000000000099</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -944,7 +944,7 @@
         <v>2.1500000000000101</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>2.1600000000000099</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
         <v>2.1700000000000199</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>2.1800000000000201</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>2.1900000000000199</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>2.2000000000000202</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
         <v>2.2100000000000199</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1020,15 +1020,15 @@
       <c r="B35" s="18"/>
       <c r="C35" s="6"/>
       <c r="D35" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C36" s="8">
         <v>3.01</v>
@@ -1044,7 +1044,7 @@
         <v>3.02</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
         <v>3.03</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>3.04</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
         <v>3.05</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>3.0600000000000098</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>3.0700000000000101</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
         <v>3.0800000000000098</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
         <v>3.0900000000000101</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
         <v>3.1000000000000099</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
         <v>3.1100000000000101</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
         <v>3.1200000000000099</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
         <v>3.1300000000000101</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>3.1400000000000099</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>3.1500000000000101</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>3.1600000000000201</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
         <v>3.1700000000000199</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
         <v>3.1800000000000201</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>3.1900000000000199</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,12 +1230,12 @@
       <c r="B56" s="18"/>
       <c r="C56" s="6"/>
       <c r="D56" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
